--- a/script/plot/messaging.xlsx
+++ b/script/plot/messaging.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -39,12 +39,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="宋体"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -72,7 +79,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
@@ -86,7 +93,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -371,11 +378,11 @@
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -389,11 +396,11 @@
   </sheetPr>
   <dimension ref="A1:CX4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="L1" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:102">
       <c r="A1" t="s">
@@ -1640,11 +1647,11 @@
   </sheetPr>
   <dimension ref="A1:CX4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="N1" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:102">
       <c r="A1" t="s">
@@ -2891,11 +2898,11 @@
   </sheetPr>
   <dimension ref="A1:CX4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:102">
       <c r="A1" t="s">
@@ -4142,11 +4149,11 @@
   </sheetPr>
   <dimension ref="A1:CX4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:102">
       <c r="A1" t="s">
@@ -5391,13 +5398,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP4"/>
+  <dimension ref="A1:AP5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:42">
       <c r="A1" t="s">
@@ -5407,124 +5414,124 @@
         <v>0</v>
       </c>
       <c r="C1" t="n">
-        <v>1.278</v>
+        <v>5</v>
       </c>
       <c r="D1" t="n">
-        <v>2.6332</v>
+        <v>10</v>
       </c>
       <c r="E1" t="n">
-        <v>4.0404</v>
+        <v>15</v>
       </c>
       <c r="F1" t="n">
-        <v>5.1904</v>
+        <v>20</v>
       </c>
       <c r="G1" t="n">
-        <v>6.718</v>
+        <v>25</v>
       </c>
       <c r="H1" t="n">
-        <v>8.0932</v>
+        <v>30</v>
       </c>
       <c r="I1" t="n">
-        <v>9.464600000000001</v>
+        <v>35</v>
       </c>
       <c r="J1" t="n">
-        <v>10.37</v>
+        <v>40</v>
       </c>
       <c r="K1" t="n">
-        <v>11.522</v>
+        <v>45</v>
       </c>
       <c r="L1" t="n">
-        <v>13.5752</v>
+        <v>50</v>
       </c>
       <c r="M1" t="n">
-        <v>14.5672</v>
+        <v>55</v>
       </c>
       <c r="N1" t="n">
-        <v>15.5806</v>
+        <v>60</v>
       </c>
       <c r="O1" t="n">
-        <v>17.7646</v>
+        <v>65</v>
       </c>
       <c r="P1" t="n">
-        <v>19.3946</v>
+        <v>70</v>
       </c>
       <c r="Q1" t="n">
-        <v>20.2812</v>
+        <v>75</v>
       </c>
       <c r="R1" t="n">
-        <v>21.7476</v>
+        <v>80</v>
       </c>
       <c r="S1" t="n">
-        <v>22.9554</v>
+        <v>85</v>
       </c>
       <c r="T1" t="n">
-        <v>26.2526</v>
+        <v>90</v>
       </c>
       <c r="U1" t="n">
-        <v>29.1786</v>
+        <v>95</v>
       </c>
       <c r="V1" t="n">
-        <v>41.8578</v>
+        <v>100</v>
       </c>
       <c r="W1" t="n">
-        <v>54.1406</v>
+        <v>105</v>
       </c>
       <c r="X1" t="n">
-        <v>55.3666</v>
+        <v>110</v>
       </c>
       <c r="Y1" t="n">
-        <v>65.2328</v>
+        <v>115</v>
       </c>
       <c r="Z1" t="n">
-        <v>96.495</v>
+        <v>120</v>
       </c>
       <c r="AA1" t="n">
-        <v>93.82640000000001</v>
+        <v>125</v>
       </c>
       <c r="AB1" t="n">
-        <v>129.4084</v>
+        <v>130</v>
       </c>
       <c r="AC1" t="n">
-        <v>127.6132</v>
+        <v>135</v>
       </c>
       <c r="AD1" t="n">
-        <v>145.7036</v>
+        <v>140</v>
       </c>
       <c r="AE1" t="n">
-        <v>183.851</v>
+        <v>145</v>
       </c>
       <c r="AF1" t="n">
-        <v>187.8862</v>
+        <v>150</v>
       </c>
       <c r="AG1" t="n">
-        <v>167.9254</v>
+        <v>155</v>
       </c>
       <c r="AH1" t="n">
-        <v>214.3868</v>
+        <v>160</v>
       </c>
       <c r="AI1" t="n">
-        <v>165.5016</v>
+        <v>165</v>
       </c>
       <c r="AJ1" t="n">
-        <v>134.9304</v>
+        <v>170</v>
       </c>
       <c r="AK1" t="n">
-        <v>113.784</v>
+        <v>175</v>
       </c>
       <c r="AL1" t="n">
-        <v>139.3634</v>
+        <v>180</v>
       </c>
       <c r="AM1" t="n">
-        <v>145.1854</v>
+        <v>185</v>
       </c>
       <c r="AN1" t="n">
-        <v>161.7648</v>
+        <v>190</v>
       </c>
       <c r="AO1" t="n">
-        <v>146.7428</v>
+        <v>195</v>
       </c>
       <c r="AP1" t="n">
-        <v>163.6876</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:42">
@@ -5779,6 +5786,9 @@
       <c r="AO3" t="n">
         <v>138.898</v>
       </c>
+      <c r="AP3" t="n">
+        <v>163.6876</v>
+      </c>
     </row>
     <row r="4" spans="1:42">
       <c r="A4" t="s">
@@ -5908,8 +5918,137 @@
         <v>52.921</v>
       </c>
     </row>
+    <row r="5" spans="1:42">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8874</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.8186</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.8354</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.8414</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.7446</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5.6326</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.653</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7.7466</v>
+      </c>
+      <c r="K5" t="n">
+        <v>8.555</v>
+      </c>
+      <c r="L5" t="n">
+        <v>9.616199999999999</v>
+      </c>
+      <c r="M5" t="n">
+        <v>10.6114</v>
+      </c>
+      <c r="N5" t="n">
+        <v>11.7716</v>
+      </c>
+      <c r="O5" t="n">
+        <v>12.8586</v>
+      </c>
+      <c r="P5" t="n">
+        <v>13.818</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>14.606</v>
+      </c>
+      <c r="R5" t="n">
+        <v>15.571</v>
+      </c>
+      <c r="S5" t="n">
+        <v>18.4098</v>
+      </c>
+      <c r="T5" t="n">
+        <v>18.6776</v>
+      </c>
+      <c r="U5" t="n">
+        <v>22.2624</v>
+      </c>
+      <c r="V5" t="n">
+        <v>47.4228</v>
+      </c>
+      <c r="W5" t="n">
+        <v>65.224</v>
+      </c>
+      <c r="X5" t="n">
+        <v>74.34399999999999</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>81.9666</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>106.6512</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>129.5678</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>104.3604</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>149.693</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>124.9294</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>146.7256</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>171.4708</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>210.9584</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>217.566</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>165.2582</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>132.415</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>80.91800000000001</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>43.189</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>45.837</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>49.45</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>48.513</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>52.921</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -5925,7 +6064,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
